--- a/策划文档/资源.xlsx
+++ b/策划文档/资源.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="战斗状态" sheetId="1" r:id="rId1"/>
-    <sheet name="特技" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="卡牌" sheetId="4" r:id="rId1"/>
+    <sheet name="战斗状态" sheetId="1" r:id="rId2"/>
+    <sheet name="特技" sheetId="2" r:id="rId3"/>
+    <sheet name="特效" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>小图标</t>
   </si>
@@ -48,34 +49,46 @@
     <t>攻击提升</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>护佑</t>
+  </si>
+  <si>
+    <t>驱散</t>
+  </si>
+  <si>
+    <t>连环</t>
+  </si>
+  <si>
     <t>武将特技</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>无敌</t>
-  </si>
-  <si>
-    <t>闪避</t>
-  </si>
-  <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>护佑</t>
-  </si>
-  <si>
-    <t>驱散</t>
-  </si>
-  <si>
-    <t>连环</t>
-  </si>
-  <si>
     <t>建筑特技</t>
   </si>
   <si>
     <t>陷阱特技</t>
+  </si>
+  <si>
+    <t>职业技能</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>职业攻击</t>
+  </si>
+  <si>
+    <t>羁绊技能</t>
   </si>
 </sst>
 </file>
@@ -83,12 +96,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +116,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -114,50 +141,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,17 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,9 +182,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +229,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -219,29 +254,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +276,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,175 +294,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,34 +485,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -513,6 +520,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -528,13 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,141 +587,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1055,6 +1081,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1106,67 +1148,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C17"/>
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+    <row r="2" spans="3:3">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1177,17 +1221,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/策划文档/资源.xlsx
+++ b/策划文档/资源.xlsx
@@ -124,6 +124,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -131,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,116 +244,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +276,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,163 +366,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -488,19 +527,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,48 +559,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,137 +587,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,12 +725,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,58 +1153,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1227,7 +1221,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="2"/>
@@ -1238,15 +1232,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3"/>
-    </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
